--- a/atomica/library/sir_databook.xlsx
+++ b/atomica/library/sir_databook.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3639E-3B58-4F47-84FF-F34919B62B05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424CD2D-04CE-4BAF-97BC-AB6B0E80A59C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="State Variables" sheetId="3" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId3"/>
+    <sheet name="State Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,17 +31,18 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the abbreviated name of a population.
 It is only ever used as a reference label within the code.
@@ -53,10 +54,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the full name of a population.
 It will appear in plots and analysis outputs.
@@ -71,44 +73,47 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'label' attribute for a 'comp' item.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -118,41 +123,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a characteristic.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8256EE45-9EF1-4CA3-85CD-6CE2E4ECFEF9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -162,41 +170,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a characteristic.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2A5CB67B-03D4-4359-A9D9-3EA87E2CE8DD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -213,44 +224,47 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a parameter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -260,41 +274,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a parameter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{288932BE-BA6B-434E-B4A8-1BBB88278D0D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -304,41 +321,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a parameter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E2E25B69-8F8B-4399-8D98-0F8FD553EEA4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -348,41 +368,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a parameter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{EF93376B-2D3E-4CA2-96B7-BAECB9504545}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -392,41 +415,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is a parameter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D104B058-2C83-48FE-BF00-F37E81D09963}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
 In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column should be filled with default values used by the model.
 If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
@@ -449,9 +475,18 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>Susceptible</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -470,56 +505,41 @@
     <t>Fraction</t>
   </si>
   <si>
+    <t>Transmission probability per contact</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Number of contacts annually</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Death rate for infected people</t>
+  </si>
+  <si>
     <t>Death rate for susceptible people</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Average duration of infections (years)</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Transmission probability per contact</t>
-  </si>
-  <si>
-    <t>Number of contacts annually</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>N.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -552,7 +572,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,10 +937,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -946,13 +966,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1018,10 +1038,10 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>700</v>
@@ -1083,13 +1103,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1155,10 +1175,10 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1220,13 +1240,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1292,10 +1312,10 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E8">
         <v>0.28571428999999998</v>
@@ -1357,10 +1377,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1370,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1386,13 +1406,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1">
         <v>2000</v>
@@ -1458,24 +1478,24 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -1541,25 +1561,25 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
         <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
@@ -1625,24 +1645,24 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>2000</v>
@@ -1708,25 +1728,25 @@
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.016,"N.A.")</f>
         <v>1.6E-2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <v>2000</v>
@@ -1792,22 +1812,22 @@
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.008,"N.A.")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/sir_databook.xlsx
+++ b/atomica/library/sir_databook.xlsx
@@ -1,473 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8424CD2D-04CE-4BAF-97BC-AB6B0E80A59C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D9BCA-87DF-459B-B921-EB786B98D7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1596" yWindow="318" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="State Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>None</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column is for the abbreviated name of a population.
-It is only ever used as a reference label within the code.
-Note: It should be in lower case without spaces.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column is for the full name of a population.
-It will appear in plots and analysis outputs.
-Note: It should be in title or sentence case.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>None</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column defines a 'label' attribute for a 'comp' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a characteristic.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>None</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is a parameter.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column displays the type of quantity that the databook is requesting, e.g. probability, duration, number, etc.
-In some cases, the user may select the format for the data, to align with data collection pragmatics, and appropriate conversions will be done internally to the model.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This column should be filled with default values used by the model.
-If the option to provide time-dependent values exists, then this can be considered a time-independent assumption.
-In this case, if any time-dependent values are entered, the Excel sheet will attempt to explicitly mark the corresponding cell as inapplicable.
-Alternatively, the user can leave the cell blank.
-However, any other value will override the time-dependent values during a model run.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -475,58 +40,76 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>Population type</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total number of entities</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Transmission probability per contact</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Framework-supplied default</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Number of contacts annually</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Duration (years)</t>
+  </si>
+  <si>
+    <t>Death rate for infected people</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
+  </si>
+  <si>
+    <t>Death rate for susceptible people</t>
+  </si>
+  <si>
     <t>adults</t>
   </si>
   <si>
     <t>Adults</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Total number of entities</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
-  </si>
-  <si>
-    <t>Fraction</t>
-  </si>
-  <si>
-    <t>Transmission probability per contact</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Number of contacts annually</t>
-  </si>
-  <si>
-    <t>N.A.</t>
-  </si>
-  <si>
-    <t>Average duration of infections (years)</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Death rate for susceptible people</t>
   </si>
 </sst>
 </file>
@@ -550,15 +133,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98E0FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -566,15 +161,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,7 +211,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -915,56 +605,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="14.83984375" customWidth="1"/>
+    <col min="3" max="3" width="18.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.15625" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" customWidth="1"/>
+    <col min="4" max="4" width="13.83984375" customWidth="1"/>
+    <col min="5" max="23" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -974,6 +678,9 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" s="1">
         <v>2000</v>
       </c>
@@ -1032,17 +739,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2">
         <v>700</v>
       </c>
@@ -1101,7 +806,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,6 +816,9 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="1">
         <v>2000</v>
       </c>
@@ -1169,17 +877,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5">
         <v>1000</v>
       </c>
@@ -1238,7 +944,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1248,6 +954,9 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="1">
         <v>2000</v>
       </c>
@@ -1306,17 +1015,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8">
         <v>0.28571428999999998</v>
       </c>
@@ -1377,34 +1084,40 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
+    <col min="3" max="3" width="19.26171875" customWidth="1"/>
+    <col min="4" max="4" width="13.83984375" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" customWidth="1"/>
+    <col min="6" max="6" width="3.83984375" customWidth="1"/>
+    <col min="7" max="25" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1414,82 +1127,112 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
         <v>2000</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>2001</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>2002</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>2003</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>2004</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>2005</v>
       </c>
-      <c r="K1" s="1">
+      <c r="M1" s="1">
         <v>2006</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="1">
         <v>2007</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>2008</v>
       </c>
-      <c r="N1" s="1">
+      <c r="P1" s="1">
         <v>2009</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="1">
         <v>2010</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="1">
         <v>2011</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="S1" s="1">
         <v>2012</v>
       </c>
-      <c r="R1" s="1">
+      <c r="T1" s="1">
         <v>2013</v>
       </c>
-      <c r="S1" s="1">
+      <c r="U1" s="1">
         <v>2014</v>
       </c>
-      <c r="T1" s="1">
+      <c r="V1" s="1">
         <v>2015</v>
       </c>
-      <c r="U1" s="1">
+      <c r="W1" s="1">
         <v>2016</v>
       </c>
-      <c r="V1" s="1">
+      <c r="X1" s="1">
         <v>2017</v>
       </c>
-      <c r="W1" s="1">
+      <c r="Y1" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1497,83 +1240,112 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>2000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>2001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>2002</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>2003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>2004</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>2005</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>2006</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>2007</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>2008</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>2009</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>2010</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>2011</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>2012</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>2013</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>2014</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>2015</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>2016</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>2017</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <f>IF(SUMPRODUCT(--(E5:W5&lt;&gt;""))=0,80,"N.A.")</f>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>80</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1581,82 +1353,112 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>2000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>2001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>2002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>2003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>2004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>2005</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>2006</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>2007</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>2008</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>2009</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>2010</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>2011</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>2012</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <v>2013</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>2014</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>2015</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>2016</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>2017</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1664,83 +1466,112 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>2000</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>2001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>2002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>2003</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>2004</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>2005</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>2006</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>2007</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>2008</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>2009</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>2010</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>2011</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>2012</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <v>2013</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>2014</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>2015</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>2016</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>2017</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <f>IF(SUMPRODUCT(--(E11:W11&lt;&gt;""))=0,0.016,"N.A.")</f>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1748,90 +1579,164 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>2000</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>2001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>2002</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>2003</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>2004</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>2005</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>2006</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>2007</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>2008</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>2009</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>2010</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>2011</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>2012</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>2013</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>2014</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>2015</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>2016</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <v>2017</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
-        <f>'Population Definitions'!A2</f>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:W14&lt;&gt;""))=0,0.008,"N.A.")</f>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14 B2 B11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>COUNTIF(G11:Y11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(COUNTIF(G11:Y11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>COUNTIF(G14:Y14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>AND(COUNTIF(G14:Y14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>COUNTIF(G2:Y2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(COUNTIF(G2:Y2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIF(G5:Y5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(COUNTIF(G5:Y5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>COUNTIF(G8:Y8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND(COUNTIF(G8:Y8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Duration"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Duration (years)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/atomica/library/sir_databook.xlsx
+++ b/atomica/library/sir_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D9BCA-87DF-459B-B921-EB786B98D7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0ED5D5-A92E-4F06-B8DB-4501891A20DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1596" yWindow="318" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +659,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -681,8 +684,8 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1">
-        <v>2000</v>
+      <c r="E1" s="5">
+        <v>36526</v>
       </c>
       <c r="F1" s="1">
         <v>2001</v>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/atomica/library/sir_databook.xlsx
+++ b/atomica/library/sir_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0ED5D5-A92E-4F06-B8DB-4501891A20DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43F1C7-70DE-48DE-933B-8E6F181A2096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="318" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1596" yWindow="318" windowWidth="17280" windowHeight="7686" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="5">
-        <v>36526</v>
+        <v>36708</v>
       </c>
       <c r="F1" s="1">
         <v>2001</v>
@@ -1105,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
